--- a/DATA_goal/Junction_Flooding_181.xlsx
+++ b/DATA_goal/Junction_Flooding_181.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41613.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.12</v>
+        <v>1.91</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.83</v>
+        <v>1.28</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>40.62</v>
+        <v>4.06</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>32.63</v>
+        <v>3.26</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.05</v>
+        <v>1.5</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>47.69</v>
+        <v>4.77</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.15</v>
+        <v>2.32</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.66</v>
+        <v>1.67</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.88</v>
+        <v>2.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>220.4</v>
+        <v>22.04</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>41.6</v>
+        <v>4.16</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.4</v>
+        <v>2.74</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>13.97</v>
+        <v>1.4</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.18</v>
+        <v>2.42</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.49</v>
+        <v>1.65</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.29</v>
+        <v>4.23</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.27</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41613.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>19.7</v>
+        <v>1.97</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.08</v>
+        <v>1.41</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>42.61</v>
+        <v>4.26</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>34.62</v>
+        <v>3.46</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>59.3</v>
+        <v>5.93</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>23.85</v>
+        <v>2.39</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>17.06</v>
+        <v>1.71</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.86</v>
+        <v>1.79</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.95</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21.78</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>13.18</v>
+        <v>1.32</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>227.31</v>
+        <v>22.73</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>43.12</v>
+        <v>4.31</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.23</v>
+        <v>1.42</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>28.72</v>
+        <v>2.87</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.95</v>
+        <v>1.5</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>28.93</v>
+        <v>2.89</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>11.3</v>
+        <v>1.13</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>13.26</v>
+        <v>1.33</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>17.74</v>
+        <v>1.77</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>53.91</v>
+        <v>5.39</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.79</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41613.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.41</v>
+        <v>1.94</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.12</v>
+        <v>1.41</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>42.11</v>
+        <v>4.21</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>34.36</v>
+        <v>3.44</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>59.74</v>
+        <v>5.97</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.5</v>
+        <v>2.35</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.29</v>
+        <v>1.53</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.9</v>
+        <v>1.69</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.75</v>
+        <v>1.77</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.54</v>
+        <v>2.15</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>223.88</v>
+        <v>22.39</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>42.5</v>
+        <v>4.25</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.44</v>
+        <v>2.84</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.86</v>
+        <v>1.49</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.39</v>
+        <v>0.24</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.88</v>
+        <v>2.89</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.06</v>
+        <v>1.11</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.64</v>
+        <v>1.76</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>54.21</v>
+        <v>5.42</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.85</v>
+        <v>0.78</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.53</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41613.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="K5" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P5" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
       <c r="Q5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.97</v>
+        <v>0.2</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41613.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>16.14</v>
+        <v>1.61</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>11.85</v>
+        <v>1.19</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>35.07</v>
+        <v>3.51</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>28.69</v>
+        <v>2.87</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>44.7</v>
+        <v>4.47</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>19.55</v>
+        <v>1.95</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.630000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>14.08</v>
+        <v>1.41</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>14.83</v>
+        <v>1.48</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.05</v>
+        <v>0.41</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>17.91</v>
+        <v>1.79</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>10.69</v>
+        <v>1.07</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="T6" s="4" t="n">
-        <v>185.09</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>35.14</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>23.57</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.08</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>40.08</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.55</v>
-      </c>
       <c r="AH6" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41613.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH7" s="4" t="n">
         <v>0.57</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>11.11</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>22.79</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>68.37</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>20.99</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>5.73</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41613.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>1.34</v>
+        <v>0.13</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>1.37</v>
+        <v>0.14</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="R8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z8" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="S8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.88</v>
-      </c>
       <c r="AA8" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>1.37</v>
+        <v>0.14</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41613.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>13.07</v>
+        <v>1.31</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>9.65</v>
+        <v>0.96</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J9" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>28.41</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>23.28</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>35.39</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>7</v>
-      </c>
       <c r="K9" s="4" t="n">
-        <v>10.4</v>
+        <v>1.04</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>11.41</v>
+        <v>1.14</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.28</v>
+        <v>0.33</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>148.39</v>
+        <v>14.84</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>28.41</v>
+        <v>2.84</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>19.09</v>
+        <v>1.91</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.5</v>
+        <v>0.15</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>17.6</v>
+        <v>1.76</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>8.34</v>
+        <v>0.83</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>7.39</v>
+        <v>0.74</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>8.69</v>
+        <v>0.87</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>31.69</v>
+        <v>3.17</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41613.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>33.43</v>
+        <v>3.34</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>27.45</v>
+        <v>2.74</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>12.02</v>
+        <v>1.2</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>46.07</v>
+        <v>4.61</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>13.42</v>
+        <v>1.34</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>14.17</v>
+        <v>1.42</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>10.1</v>
+        <v>1.01</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>175.88</v>
+        <v>17.59</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>33.64</v>
+        <v>3.36</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>22.66</v>
+        <v>2.27</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>22.61</v>
+        <v>2.26</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>10.2</v>
+        <v>1.02</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>41.86</v>
+        <v>4.19</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_181.xlsx
+++ b/DATA_goal/Junction_Flooding_181.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,21 +448,21 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -475,7 +475,7 @@
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,263 +652,263 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41613.34027777778</v>
+        <v>44862.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.06</v>
+        <v>4.37</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.26</v>
+        <v>3.56</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.77</v>
+        <v>5.26</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.97</v>
+        <v>1.05</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.09</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>22.04</v>
+        <v>23.87</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.16</v>
+        <v>4.5</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.74</v>
+        <v>2.97</v>
       </c>
       <c r="X2" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC2" s="4" t="n">
         <v>1.4</v>
       </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AD2" s="4" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.23</v>
+        <v>4.65</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41613.34722222222</v>
+        <v>44862.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.41</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.26</v>
+        <v>2.15</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.46</v>
+        <v>1.75</v>
       </c>
       <c r="G3" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z3" s="4" t="n">
         <v>1.55</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.89</v>
-      </c>
       <c r="AA3" s="4" t="n">
-        <v>1.26</v>
+        <v>0.64</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.13</v>
+        <v>0.59</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.33</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.77</v>
+        <v>0.88</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.39</v>
+        <v>3.02</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.79</v>
+        <v>0.4</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.78</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41613.35416666666</v>
+        <v>44862.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.21</v>
+        <v>3.95</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.44</v>
+        <v>3.24</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.97</v>
+        <v>5.4</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.35</v>
+        <v>2.21</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.11</v>
@@ -917,777 +917,257 @@
         <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>22.39</v>
+        <v>21.01</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.25</v>
+        <v>3.99</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.84</v>
+        <v>2.67</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.89</v>
+        <v>2.63</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.42</v>
+        <v>4.89</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41613.36111111111</v>
+        <v>44862.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I5" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="J5" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="K5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N5" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="O5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41613.36805555555</v>
+        <v>44862.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.61</v>
+        <v>12.97</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.19</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.87</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.51</v>
+        <v>28.11</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.87</v>
+        <v>23.04</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.25</v>
+        <v>10.21</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.47</v>
+        <v>35.79</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.95</v>
+        <v>15.71</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.86</v>
+        <v>6.9</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.28</v>
+        <v>10.27</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.41</v>
+        <v>11.32</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.48</v>
+        <v>11.87</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.41</v>
+        <v>3.26</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.26</v>
+        <v>10.15</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.79</v>
+        <v>14.36</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.07</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>18.51</v>
+        <v>147.14</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.51</v>
+        <v>28.2</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.17</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.36</v>
+        <v>18.86</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.24</v>
+        <v>10</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.19</v>
+        <v>1.57</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.21</v>
+        <v>17.51</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.03</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.92</v>
+        <v>7.38</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.08</v>
+        <v>8.67</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.47</v>
+        <v>11.8</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.01</v>
+        <v>31.99</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.65</v>
+        <v>5.26</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41613.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41613.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41613.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41613.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>17.59</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41613.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>22.14</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>18.14</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>33.08</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>114.07</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>22.36</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>30.15</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>11.71</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_181.xlsx
+++ b/DATA_goal/Junction_Flooding_181.xlsx
@@ -444,34 +444,34 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>44862.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.66</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.4</v>
+        <v>14.03</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.37</v>
+        <v>43.7</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.56</v>
+        <v>35.64</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.26</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.26</v>
+        <v>52.56</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.5</v>
+        <v>25.01</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.52</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.73</v>
+        <v>17.26</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.02</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.62</v>
+        <v>16.17</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.26</v>
+        <v>22.64</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.69</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>23.87</v>
+        <v>238.72</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.5</v>
+        <v>44.98</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.49</v>
+        <v>14.92</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.97</v>
+        <v>29.66</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.53</v>
+        <v>15.32</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.6</v>
+        <v>26.04</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.19</v>
+        <v>11.92</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.95</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.71</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.65</v>
+        <v>46.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.87</v>
+        <v>18.66</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44862.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.09</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.15</v>
+        <v>21.54</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.48</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.31</v>
+        <v>33.11</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.71</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.89</v>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>11.29</v>
+        <v>112.87</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.22</v>
+        <v>22.21</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.54</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.65</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.55</v>
+        <v>15.54</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.92</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.02</v>
+        <v>30.22</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44862.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.83</v>
+        <v>18.26</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.26</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.95</v>
+        <v>39.49</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.24</v>
+        <v>32.38</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.37</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.4</v>
+        <v>54.04</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.21</v>
+        <v>22.11</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.45</v>
+        <v>14.45</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.66</v>
+        <v>16.65</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.29</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.02</v>
+        <v>20.24</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21.01</v>
+        <v>210.13</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.99</v>
+        <v>39.91</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.19</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.67</v>
+        <v>26.67</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.08</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.63</v>
+        <v>26.26</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.65</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.52</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.89</v>
+        <v>48.89</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.49</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44862.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.37</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.31</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.74</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_181.xlsx
+++ b/DATA_goal/Junction_Flooding_181.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44862.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.66</v>
+        <v>20.658</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.03</v>
+        <v>14.028</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>4.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>43.7</v>
+        <v>43.704</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>35.64</v>
+        <v>35.637</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.26</v>
+        <v>16.257</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>52.56</v>
+        <v>52.557</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.01</v>
+        <v>25.014</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.52</v>
+        <v>10.522</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.08</v>
+        <v>16.084</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.26</v>
+        <v>17.263</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.02</v>
+        <v>18.024</v>
       </c>
       <c r="N2" s="4" t="n">
         <v>5.19</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.17</v>
+        <v>16.166</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.64</v>
+        <v>22.644</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.69</v>
+        <v>13.689</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.71</v>
+        <v>3.709</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.45</v>
+        <v>2.453</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>238.72</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>44.98</v>
+        <v>44.979</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.92</v>
+        <v>14.922</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>29.66</v>
+        <v>29.658</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.32</v>
+        <v>15.316</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.94</v>
+        <v>2.936</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>26.04</v>
+        <v>26.039</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.18</v>
+        <v>13.181</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.92</v>
+        <v>11.919</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.95</v>
+        <v>13.951</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.71</v>
+        <v>17.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.458</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>46.55</v>
+        <v>46.546</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.34</v>
+        <v>8.337999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.66</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="3">
@@ -759,28 +759,28 @@
         <v>44862.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.09</v>
+        <v>10.089</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.88</v>
+        <v>6.876</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.6</v>
+        <v>1.597</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.54</v>
+        <v>21.542</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.48</v>
+        <v>17.485</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>7.94</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>33.11</v>
+        <v>33.107</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.22</v>
+        <v>12.216</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>5.17</v>
@@ -789,64 +789,64 @@
         <v>7.71</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.638</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>8.945</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.54</v>
+        <v>2.539</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.06</v>
+        <v>11.062</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.92</v>
+        <v>6.917</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>1.55</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.894</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>112.87</v>
+        <v>112.865</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>22.21</v>
+        <v>22.206</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>14.54</v>
+        <v>14.542</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.65</v>
+        <v>7.647</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.541</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>15.54</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.92</v>
+        <v>5.923</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>6.92</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.82</v>
+        <v>8.816000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>30.22</v>
@@ -855,7 +855,7 @@
         <v>4.02</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.112</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44862.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>18.26</v>
+        <v>18.256</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.26</v>
+        <v>13.256</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.38</v>
+        <v>1.382</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>39.49</v>
+        <v>39.487</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>32.38</v>
+        <v>32.381</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>14.37</v>
+        <v>14.367</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>54.04</v>
+        <v>54.041</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>22.11</v>
+        <v>22.106</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>9.709</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.45</v>
+        <v>14.454</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.88</v>
+        <v>15.878</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.65</v>
+        <v>16.646</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.59</v>
+        <v>4.588</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>14.29</v>
+        <v>14.287</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>20.24</v>
+        <v>20.245</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.14</v>
+        <v>12.141</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.088</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.876</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>210.13</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>39.91</v>
+        <v>39.908</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.19</v>
+        <v>13.187</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>26.67</v>
+        <v>26.674</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.08</v>
+        <v>14.076</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.24</v>
+        <v>2.239</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.26</v>
+        <v>26.264</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.65</v>
+        <v>11.648</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.415</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.22</v>
+        <v>12.224</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.52</v>
+        <v>16.519</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>48.89</v>
+        <v>48.888</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.41</v>
+        <v>7.408</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.49</v>
+        <v>16.487</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>0.89</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44862.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.11</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>23.04</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.79</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>147.14</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.51</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.99</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.71</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_181.xlsx
+++ b/DATA_goal/Junction_Flooding_181.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44862.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.961</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.588</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.94</v>
+        <v>1.939</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.37</v>
+        <v>1.372</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.765</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.9</v>
+        <v>10.905</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.16</v>
+        <v>1.163</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.468</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.741</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.288</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.2</v>
+        <v>1.196</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.696</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.259</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.31</v>
+        <v>4.305</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.74</v>
+        <v>2.736</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.83</v>
+        <v>1.834</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.857</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.39</v>
+        <v>0.385</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.6</v>
+        <v>4.597</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.613</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>0.71</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.786</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.732</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>10.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.299</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.89</v>
+        <v>0.887</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44862.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>28.11</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>35.79</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>147.14</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>31.99</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.71</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_181.xlsx
+++ b/DATA_goal/Junction_Flooding_181.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44862.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.961</v>
+        <v>0.96</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.588</v>
+        <v>0.59</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.939</v>
+        <v>1.94</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.372</v>
+        <v>1.37</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.765</v>
+        <v>0.76</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.905</v>
+        <v>10.9</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.163</v>
+        <v>1.16</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.468</v>
+        <v>0.47</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.288</v>
+        <v>0.29</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.196</v>
+        <v>1.2</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.877</v>
+        <v>0.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.696</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.259</v>
+        <v>0.26</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.305</v>
+        <v>4.31</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.736</v>
+        <v>2.74</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.694</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.834</v>
+        <v>1.83</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.857</v>
+        <v>0.86</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.385</v>
+        <v>0.39</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.597</v>
+        <v>4.6</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.613</v>
+        <v>0.61</v>
       </c>
       <c r="AB5" s="4" t="n">
         <v>0.71</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.786</v>
+        <v>0.79</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.732</v>
+        <v>0.73</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>10.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.299</v>
+        <v>0.3</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.887</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44862.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.11</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>23.04</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>35.79</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>147.14</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.51</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>31.99</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.71</v>
+        <v>0.89</v>
       </c>
     </row>
   </sheetData>
